--- a/Files/nhap_file_exel.xlsx
+++ b/Files/nhap_file_exel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LapTrinhWeb\quanlysinhvien\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E6512-632A-48EF-BB73-60B6EDFCDDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{38E5A44E-0C27-4DF6-AECA-80388389CA96}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -103,9 +102,6 @@
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>B22DCCN013</t>
@@ -291,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +336,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1A2FA87F-C1B2-41C5-91B6-AFEC473B426B}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,28 +653,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E08F03-24DA-4CAA-B797-E81E58859F32}">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,435 +706,407 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
       <c r="J2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
       <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="9:9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" t="str">
         <f>C20&amp;" "&amp;D20</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="9:9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" t="str">
         <f>C21&amp;" "&amp;D21</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="9:9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{5A0FC037-845B-4668-B5B8-9A91992CB725}"/>
-    <hyperlink ref="H3:H21" r:id="rId2" display="nams0129@stu.ptit.edu.vn" xr:uid="{90385D29-3C7A-4435-928A-FFB250995A55}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H21" r:id="rId2" display="nams0129@stu.ptit.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
